--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalak\Desktop\jp backup\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalak\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>jalak</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>_id</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -361,20 +364,26 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>140</v>
+      </c>
+      <c r="C2">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
